--- a/state_results/Contact_Recreation/MangawhararikiatRuahineDressCircle_ba07d225b5.xlsx
+++ b/state_results/Contact_Recreation/MangawhararikiatRuahineDressCircle_ba07d225b5.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/MangawhararikiatRuahineDressCircle_ba07d225b5.xlsx
+++ b/state_results/Contact_Recreation/MangawhararikiatRuahineDressCircle_ba07d225b5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="47">
   <si>
     <t>site name</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Poor</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>2016 - 2020</t>
   </si>
   <si>
@@ -122,6 +125,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -503,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,16 +597,16 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>97.5</v>
       </c>
       <c r="G2">
-        <v>266.534203195914</v>
+        <v>266.534863267779</v>
       </c>
       <c r="H2">
         <v>7270</v>
@@ -630,19 +639,19 @@
         <v>5585960</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -656,16 +665,16 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>97.5</v>
       </c>
       <c r="G3">
-        <v>266.534203195914</v>
+        <v>266.534863267779</v>
       </c>
       <c r="H3">
         <v>7270</v>
@@ -698,19 +707,19 @@
         <v>5585960</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -724,16 +733,16 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>97.5</v>
       </c>
       <c r="G4">
-        <v>266.534203195914</v>
+        <v>266.534863267779</v>
       </c>
       <c r="H4">
         <v>7270</v>
@@ -766,19 +775,19 @@
         <v>5585960</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -792,16 +801,16 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>97.5</v>
       </c>
       <c r="G5">
-        <v>266.534203195914</v>
+        <v>266.534863267779</v>
       </c>
       <c r="H5">
         <v>7270</v>
@@ -834,19 +843,19 @@
         <v>5585960</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -860,16 +869,16 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>97.5</v>
       </c>
       <c r="G6">
-        <v>266.534203195914</v>
+        <v>266.534863267779</v>
       </c>
       <c r="H6">
         <v>7270</v>
@@ -902,19 +911,19 @@
         <v>5585960</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -928,16 +937,16 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>86</v>
       </c>
       <c r="G7">
-        <v>241.230185375167</v>
+        <v>241.230607087748</v>
       </c>
       <c r="H7">
         <v>7270</v>
@@ -970,19 +979,19 @@
         <v>5585960</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -996,16 +1005,16 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>86</v>
       </c>
       <c r="G8">
-        <v>241.230185375167</v>
+        <v>241.230607087748</v>
       </c>
       <c r="H8">
         <v>7270</v>
@@ -1038,19 +1047,19 @@
         <v>5585960</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1064,16 +1073,16 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>86</v>
       </c>
       <c r="G9">
-        <v>241.230185375167</v>
+        <v>241.230607087748</v>
       </c>
       <c r="H9">
         <v>7270</v>
@@ -1106,19 +1115,19 @@
         <v>5585960</v>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1132,16 +1141,16 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>86</v>
       </c>
       <c r="G10">
-        <v>241.230185375167</v>
+        <v>241.230607087748</v>
       </c>
       <c r="H10">
         <v>7270</v>
@@ -1174,19 +1183,19 @@
         <v>5585960</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1200,16 +1209,16 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>86</v>
       </c>
       <c r="G11">
-        <v>241.230185375167</v>
+        <v>241.230607087748</v>
       </c>
       <c r="H11">
         <v>7270</v>
@@ -1242,19 +1251,19 @@
         <v>5585960</v>
       </c>
       <c r="R11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1268,16 +1277,16 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>98</v>
       </c>
       <c r="G12">
-        <v>349.311972928694</v>
+        <v>349.312282758345</v>
       </c>
       <c r="H12">
         <v>9800</v>
@@ -1310,19 +1319,19 @@
         <v>5585960</v>
       </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1336,16 +1345,16 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>98</v>
       </c>
       <c r="G13">
-        <v>349.311972928694</v>
+        <v>349.312282758345</v>
       </c>
       <c r="H13">
         <v>9800</v>
@@ -1378,19 +1387,19 @@
         <v>5585960</v>
       </c>
       <c r="R13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1404,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>98</v>
       </c>
       <c r="G14">
-        <v>349.311972928694</v>
+        <v>349.312282758345</v>
       </c>
       <c r="H14">
         <v>9800</v>
@@ -1446,19 +1455,19 @@
         <v>5585960</v>
       </c>
       <c r="R14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1472,16 +1481,16 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>98</v>
       </c>
       <c r="G15">
-        <v>349.311972928694</v>
+        <v>349.312282758345</v>
       </c>
       <c r="H15">
         <v>9800</v>
@@ -1514,19 +1523,19 @@
         <v>5585960</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1540,16 +1549,16 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>98</v>
       </c>
       <c r="G16">
-        <v>349.311972928694</v>
+        <v>349.312282758345</v>
       </c>
       <c r="H16">
         <v>9800</v>
@@ -1582,19 +1591,19 @@
         <v>5585960</v>
       </c>
       <c r="R16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1608,16 +1617,16 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>98</v>
       </c>
       <c r="G17">
-        <v>313.66218042943</v>
+        <v>313.66325200635</v>
       </c>
       <c r="H17">
         <v>9800</v>
@@ -1650,19 +1659,19 @@
         <v>5585960</v>
       </c>
       <c r="R17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1676,16 +1685,16 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>98</v>
       </c>
       <c r="G18">
-        <v>313.66218042943</v>
+        <v>313.66325200635</v>
       </c>
       <c r="H18">
         <v>9800</v>
@@ -1718,19 +1727,19 @@
         <v>5585960</v>
       </c>
       <c r="R18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1744,16 +1753,16 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19">
         <v>98</v>
       </c>
       <c r="G19">
-        <v>313.66218042943</v>
+        <v>313.66325200635</v>
       </c>
       <c r="H19">
         <v>9800</v>
@@ -1786,19 +1795,19 @@
         <v>5585960</v>
       </c>
       <c r="R19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1812,16 +1821,16 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>98</v>
       </c>
       <c r="G20">
-        <v>313.66218042943</v>
+        <v>313.66325200635</v>
       </c>
       <c r="H20">
         <v>9800</v>
@@ -1854,19 +1863,19 @@
         <v>5585960</v>
       </c>
       <c r="R20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1880,16 +1889,16 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>98</v>
       </c>
       <c r="G21">
-        <v>313.66218042943</v>
+        <v>313.66325200635</v>
       </c>
       <c r="H21">
         <v>9800</v>
@@ -1922,19 +1931,699 @@
         <v>5585960</v>
       </c>
       <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="S21" t="s">
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>98</v>
+      </c>
+      <c r="G22">
+        <v>259.417350367005</v>
+      </c>
+      <c r="H22">
+        <v>9800</v>
+      </c>
+      <c r="I22">
+        <v>854.4</v>
+      </c>
+      <c r="J22">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="K22">
+        <v>16.3934426229508</v>
+      </c>
+      <c r="L22">
+        <v>110</v>
+      </c>
+      <c r="M22">
+        <v>204</v>
+      </c>
+      <c r="N22">
+        <v>251.56</v>
+      </c>
+      <c r="O22">
+        <v>529.38</v>
+      </c>
+      <c r="P22">
+        <v>1847383</v>
+      </c>
+      <c r="Q22">
+        <v>5585960</v>
+      </c>
+      <c r="R22" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>98</v>
+      </c>
+      <c r="G23">
+        <v>259.417350367005</v>
+      </c>
+      <c r="H23">
+        <v>9800</v>
+      </c>
+      <c r="I23">
+        <v>854.4</v>
+      </c>
+      <c r="J23">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="K23">
+        <v>16.3934426229508</v>
+      </c>
+      <c r="L23">
+        <v>110</v>
+      </c>
+      <c r="M23">
+        <v>204</v>
+      </c>
+      <c r="N23">
+        <v>251.56</v>
+      </c>
+      <c r="O23">
+        <v>529.38</v>
+      </c>
+      <c r="P23">
+        <v>1847383</v>
+      </c>
+      <c r="Q23">
+        <v>5585960</v>
+      </c>
+      <c r="R23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T23" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>98</v>
+      </c>
+      <c r="G24">
+        <v>259.417350367005</v>
+      </c>
+      <c r="H24">
+        <v>9800</v>
+      </c>
+      <c r="I24">
+        <v>854.4</v>
+      </c>
+      <c r="J24">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="K24">
+        <v>16.3934426229508</v>
+      </c>
+      <c r="L24">
+        <v>110</v>
+      </c>
+      <c r="M24">
+        <v>204</v>
+      </c>
+      <c r="N24">
+        <v>251.56</v>
+      </c>
+      <c r="O24">
+        <v>529.38</v>
+      </c>
+      <c r="P24">
+        <v>1847383</v>
+      </c>
+      <c r="Q24">
+        <v>5585960</v>
+      </c>
+      <c r="R24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>98</v>
+      </c>
+      <c r="G25">
+        <v>259.417350367005</v>
+      </c>
+      <c r="H25">
+        <v>9800</v>
+      </c>
+      <c r="I25">
+        <v>854.4</v>
+      </c>
+      <c r="J25">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="K25">
+        <v>16.3934426229508</v>
+      </c>
+      <c r="L25">
+        <v>110</v>
+      </c>
+      <c r="M25">
+        <v>204</v>
+      </c>
+      <c r="N25">
+        <v>251.56</v>
+      </c>
+      <c r="O25">
+        <v>529.38</v>
+      </c>
+      <c r="P25">
+        <v>1847383</v>
+      </c>
+      <c r="Q25">
+        <v>5585960</v>
+      </c>
+      <c r="R25" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>98</v>
+      </c>
+      <c r="G26">
+        <v>259.417350367005</v>
+      </c>
+      <c r="H26">
+        <v>9800</v>
+      </c>
+      <c r="I26">
+        <v>854.4</v>
+      </c>
+      <c r="J26">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="K26">
+        <v>16.3934426229508</v>
+      </c>
+      <c r="L26">
+        <v>110</v>
+      </c>
+      <c r="M26">
+        <v>204</v>
+      </c>
+      <c r="N26">
+        <v>251.56</v>
+      </c>
+      <c r="O26">
+        <v>529.38</v>
+      </c>
+      <c r="P26">
+        <v>1847383</v>
+      </c>
+      <c r="Q26">
+        <v>5585960</v>
+      </c>
+      <c r="R26" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
         <v>38</v>
       </c>
-      <c r="T21" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" t="s">
-        <v>40</v>
-      </c>
-      <c r="V21" t="s">
-        <v>43</v>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>98</v>
+      </c>
+      <c r="G27">
+        <v>272.453069658088</v>
+      </c>
+      <c r="H27">
+        <v>9800</v>
+      </c>
+      <c r="I27">
+        <v>905.2</v>
+      </c>
+      <c r="J27">
+        <v>10.3174603174603</v>
+      </c>
+      <c r="K27">
+        <v>19.047619047619</v>
+      </c>
+      <c r="L27">
+        <v>109</v>
+      </c>
+      <c r="M27">
+        <v>237.3</v>
+      </c>
+      <c r="N27">
+        <v>272.24</v>
+      </c>
+      <c r="O27">
+        <v>615.4400000000001</v>
+      </c>
+      <c r="P27">
+        <v>1847383</v>
+      </c>
+      <c r="Q27">
+        <v>5585960</v>
+      </c>
+      <c r="R27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>42</v>
+      </c>
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>98</v>
+      </c>
+      <c r="G28">
+        <v>272.453069658088</v>
+      </c>
+      <c r="H28">
+        <v>9800</v>
+      </c>
+      <c r="I28">
+        <v>905.2</v>
+      </c>
+      <c r="J28">
+        <v>10.3174603174603</v>
+      </c>
+      <c r="K28">
+        <v>19.047619047619</v>
+      </c>
+      <c r="L28">
+        <v>109</v>
+      </c>
+      <c r="M28">
+        <v>237.3</v>
+      </c>
+      <c r="N28">
+        <v>272.24</v>
+      </c>
+      <c r="O28">
+        <v>615.4400000000001</v>
+      </c>
+      <c r="P28">
+        <v>1847383</v>
+      </c>
+      <c r="Q28">
+        <v>5585960</v>
+      </c>
+      <c r="R28" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>98</v>
+      </c>
+      <c r="G29">
+        <v>272.453069658088</v>
+      </c>
+      <c r="H29">
+        <v>9800</v>
+      </c>
+      <c r="I29">
+        <v>905.2</v>
+      </c>
+      <c r="J29">
+        <v>10.3174603174603</v>
+      </c>
+      <c r="K29">
+        <v>19.047619047619</v>
+      </c>
+      <c r="L29">
+        <v>109</v>
+      </c>
+      <c r="M29">
+        <v>237.3</v>
+      </c>
+      <c r="N29">
+        <v>272.24</v>
+      </c>
+      <c r="O29">
+        <v>615.4400000000001</v>
+      </c>
+      <c r="P29">
+        <v>1847383</v>
+      </c>
+      <c r="Q29">
+        <v>5585960</v>
+      </c>
+      <c r="R29" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>98</v>
+      </c>
+      <c r="G30">
+        <v>272.453069658088</v>
+      </c>
+      <c r="H30">
+        <v>9800</v>
+      </c>
+      <c r="I30">
+        <v>905.2</v>
+      </c>
+      <c r="J30">
+        <v>10.3174603174603</v>
+      </c>
+      <c r="K30">
+        <v>19.047619047619</v>
+      </c>
+      <c r="L30">
+        <v>109</v>
+      </c>
+      <c r="M30">
+        <v>237.3</v>
+      </c>
+      <c r="N30">
+        <v>272.24</v>
+      </c>
+      <c r="O30">
+        <v>615.4400000000001</v>
+      </c>
+      <c r="P30">
+        <v>1847383</v>
+      </c>
+      <c r="Q30">
+        <v>5585960</v>
+      </c>
+      <c r="R30" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31">
+        <v>98</v>
+      </c>
+      <c r="G31">
+        <v>272.453069658088</v>
+      </c>
+      <c r="H31">
+        <v>9800</v>
+      </c>
+      <c r="I31">
+        <v>905.2</v>
+      </c>
+      <c r="J31">
+        <v>10.3174603174603</v>
+      </c>
+      <c r="K31">
+        <v>19.047619047619</v>
+      </c>
+      <c r="L31">
+        <v>109</v>
+      </c>
+      <c r="M31">
+        <v>237.3</v>
+      </c>
+      <c r="N31">
+        <v>272.24</v>
+      </c>
+      <c r="O31">
+        <v>615.4400000000001</v>
+      </c>
+      <c r="P31">
+        <v>1847383</v>
+      </c>
+      <c r="Q31">
+        <v>5585960</v>
+      </c>
+      <c r="R31" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
